--- a/Team-Data/2013-14/4-3-2013-14.xlsx
+++ b/Team-Data/2013-14/4-3-2013-14.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -774,7 +841,7 @@
         <v>2</v>
       </c>
       <c r="AN2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AO2" t="n">
         <v>17</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>4-3-2013-14</t>
+          <t>2014-04-03</t>
         </is>
       </c>
     </row>
@@ -926,7 +993,7 @@
         <v>-4.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AE3" t="n">
         <v>26</v>
@@ -986,7 +1053,7 @@
         <v>23</v>
       </c>
       <c r="AX3" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AY3" t="n">
         <v>13</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>4-3-2013-14</t>
+          <t>2014-04-03</t>
         </is>
       </c>
     </row>
@@ -1165,7 +1232,7 @@
         <v>10</v>
       </c>
       <c r="AW4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AX4" t="n">
         <v>28</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>4-3-2013-14</t>
+          <t>2014-04-03</t>
         </is>
       </c>
     </row>
@@ -1290,7 +1357,7 @@
         <v>-0.6</v>
       </c>
       <c r="AD5" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AE5" t="n">
         <v>16</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>4-3-2013-14</t>
+          <t>2014-04-03</t>
         </is>
       </c>
     </row>
@@ -1472,7 +1539,7 @@
         <v>1.4</v>
       </c>
       <c r="AD6" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AE6" t="n">
         <v>12</v>
@@ -1532,7 +1599,7 @@
         <v>21</v>
       </c>
       <c r="AX6" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AY6" t="n">
         <v>28</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>4-3-2013-14</t>
+          <t>2014-04-03</t>
         </is>
       </c>
     </row>
@@ -1654,7 +1721,7 @@
         <v>-3.8</v>
       </c>
       <c r="AD7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE7" t="n">
         <v>22</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>4-3-2013-14</t>
+          <t>2014-04-03</t>
         </is>
       </c>
     </row>
@@ -1758,22 +1825,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E8" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F8" t="n">
         <v>31</v>
       </c>
       <c r="G8" t="n">
-        <v>0.592</v>
+        <v>0.587</v>
       </c>
       <c r="H8" t="n">
         <v>48.3</v>
       </c>
       <c r="I8" t="n">
-        <v>39.6</v>
+        <v>39.5</v>
       </c>
       <c r="J8" t="n">
         <v>83.59999999999999</v>
@@ -1782,13 +1849,13 @@
         <v>0.473</v>
       </c>
       <c r="L8" t="n">
-        <v>8.800000000000001</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="M8" t="n">
         <v>22.8</v>
       </c>
       <c r="N8" t="n">
-        <v>0.386</v>
+        <v>0.384</v>
       </c>
       <c r="O8" t="n">
         <v>17.3</v>
@@ -1797,16 +1864,16 @@
         <v>21.7</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.797</v>
+        <v>0.796</v>
       </c>
       <c r="R8" t="n">
-        <v>10.1</v>
+        <v>10.2</v>
       </c>
       <c r="S8" t="n">
-        <v>30.6</v>
+        <v>30.5</v>
       </c>
       <c r="T8" t="n">
-        <v>40.8</v>
+        <v>40.7</v>
       </c>
       <c r="U8" t="n">
         <v>23.7</v>
@@ -1830,13 +1897,13 @@
         <v>20.1</v>
       </c>
       <c r="AB8" t="n">
-        <v>105.2</v>
+        <v>105.1</v>
       </c>
       <c r="AC8" t="n">
         <v>2.3</v>
       </c>
       <c r="AD8" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AE8" t="n">
         <v>9</v>
@@ -1848,7 +1915,7 @@
         <v>9</v>
       </c>
       <c r="AH8" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AI8" t="n">
         <v>2</v>
@@ -1857,7 +1924,7 @@
         <v>11</v>
       </c>
       <c r="AK8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AL8" t="n">
         <v>8</v>
@@ -1893,7 +1960,7 @@
         <v>4</v>
       </c>
       <c r="AW8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AX8" t="n">
         <v>21</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>4-3-2013-14</t>
+          <t>2014-04-03</t>
         </is>
       </c>
     </row>
@@ -2018,7 +2085,7 @@
         <v>-2.2</v>
       </c>
       <c r="AD9" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AE9" t="n">
         <v>18</v>
@@ -2066,13 +2133,13 @@
         <v>7</v>
       </c>
       <c r="AT9" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AU9" t="n">
         <v>12</v>
       </c>
       <c r="AV9" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AW9" t="n">
         <v>17</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>4-3-2013-14</t>
+          <t>2014-04-03</t>
         </is>
       </c>
     </row>
@@ -2200,7 +2267,7 @@
         <v>-3.5</v>
       </c>
       <c r="AD10" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AE10" t="n">
         <v>23</v>
@@ -2254,7 +2321,7 @@
         <v>21</v>
       </c>
       <c r="AV10" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AW10" t="n">
         <v>7</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>4-3-2013-14</t>
+          <t>2014-04-03</t>
         </is>
       </c>
     </row>
@@ -2382,7 +2449,7 @@
         <v>4.1</v>
       </c>
       <c r="AD11" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AE11" t="n">
         <v>8</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>4-3-2013-14</t>
+          <t>2014-04-03</t>
         </is>
       </c>
     </row>
@@ -2576,7 +2643,7 @@
         <v>6</v>
       </c>
       <c r="AH12" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AI12" t="n">
         <v>16</v>
@@ -2585,7 +2652,7 @@
         <v>28</v>
       </c>
       <c r="AK12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AL12" t="n">
         <v>5</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>4-3-2013-14</t>
+          <t>2014-04-03</t>
         </is>
       </c>
     </row>
@@ -2746,13 +2813,13 @@
         <v>5</v>
       </c>
       <c r="AD13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE13" t="n">
         <v>4</v>
       </c>
       <c r="AF13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AG13" t="n">
         <v>5</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>4-3-2013-14</t>
+          <t>2014-04-03</t>
         </is>
       </c>
     </row>
@@ -2850,16 +2917,16 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E14" t="n">
         <v>54</v>
       </c>
       <c r="F14" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G14" t="n">
-        <v>0.701</v>
+        <v>0.711</v>
       </c>
       <c r="H14" t="n">
         <v>48.2</v>
@@ -2868,28 +2935,28 @@
         <v>39</v>
       </c>
       <c r="J14" t="n">
-        <v>82.40000000000001</v>
+        <v>82.3</v>
       </c>
       <c r="K14" t="n">
         <v>0.474</v>
       </c>
       <c r="L14" t="n">
-        <v>8.4</v>
+        <v>8.5</v>
       </c>
       <c r="M14" t="n">
         <v>23.9</v>
       </c>
       <c r="N14" t="n">
-        <v>0.352</v>
+        <v>0.354</v>
       </c>
       <c r="O14" t="n">
-        <v>21.2</v>
+        <v>21.1</v>
       </c>
       <c r="P14" t="n">
         <v>28.9</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.733</v>
+        <v>0.732</v>
       </c>
       <c r="R14" t="n">
         <v>10.5</v>
@@ -2904,7 +2971,7 @@
         <v>24.5</v>
       </c>
       <c r="V14" t="n">
-        <v>13.9</v>
+        <v>14</v>
       </c>
       <c r="W14" t="n">
         <v>8.6</v>
@@ -2913,7 +2980,7 @@
         <v>4.8</v>
       </c>
       <c r="Y14" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Z14" t="n">
         <v>21.6</v>
@@ -2925,19 +2992,19 @@
         <v>107.7</v>
       </c>
       <c r="AC14" t="n">
-        <v>6.9</v>
+        <v>7.1</v>
       </c>
       <c r="AD14" t="n">
         <v>1</v>
       </c>
       <c r="AE14" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF14" t="n">
         <v>3</v>
       </c>
-      <c r="AF14" t="n">
-        <v>4</v>
-      </c>
       <c r="AG14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AH14" t="n">
         <v>26</v>
@@ -2952,13 +3019,13 @@
         <v>3</v>
       </c>
       <c r="AL14" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AM14" t="n">
         <v>8</v>
       </c>
       <c r="AN14" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AO14" t="n">
         <v>3</v>
@@ -2982,10 +3049,10 @@
         <v>3</v>
       </c>
       <c r="AV14" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AW14" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AX14" t="n">
         <v>13</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>4-3-2013-14</t>
+          <t>2014-04-03</t>
         </is>
       </c>
     </row>
@@ -3110,7 +3177,7 @@
         <v>-6.2</v>
       </c>
       <c r="AD15" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AE15" t="n">
         <v>25</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>4-3-2013-14</t>
+          <t>2014-04-03</t>
         </is>
       </c>
     </row>
@@ -3292,16 +3359,16 @@
         <v>1.3</v>
       </c>
       <c r="AD16" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AE16" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AF16" t="n">
         <v>9</v>
       </c>
       <c r="AG16" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AH16" t="n">
         <v>20</v>
@@ -3322,7 +3389,7 @@
         <v>30</v>
       </c>
       <c r="AN16" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AO16" t="n">
         <v>30</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>4-3-2013-14</t>
+          <t>2014-04-03</t>
         </is>
       </c>
     </row>
@@ -3483,7 +3550,7 @@
         <v>3</v>
       </c>
       <c r="AG17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AH17" t="n">
         <v>11</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>4-3-2013-14</t>
+          <t>2014-04-03</t>
         </is>
       </c>
     </row>
@@ -3656,7 +3723,7 @@
         <v>-8.300000000000001</v>
       </c>
       <c r="AD18" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AE18" t="n">
         <v>30</v>
@@ -3686,7 +3753,7 @@
         <v>22</v>
       </c>
       <c r="AN18" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AO18" t="n">
         <v>22</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>4-3-2013-14</t>
+          <t>2014-04-03</t>
         </is>
       </c>
     </row>
@@ -3895,7 +3962,7 @@
         <v>6</v>
       </c>
       <c r="AW19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AX19" t="n">
         <v>30</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>4-3-2013-14</t>
+          <t>2014-04-03</t>
         </is>
       </c>
     </row>
@@ -4020,7 +4087,7 @@
         <v>-2.6</v>
       </c>
       <c r="AD20" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AE20" t="n">
         <v>20</v>
@@ -4074,7 +4141,7 @@
         <v>18</v>
       </c>
       <c r="AV20" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AW20" t="n">
         <v>12</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>4-3-2013-14</t>
+          <t>2014-04-03</t>
         </is>
       </c>
     </row>
@@ -4202,7 +4269,7 @@
         <v>-1.1</v>
       </c>
       <c r="AD21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE21" t="n">
         <v>18</v>
@@ -4238,7 +4305,7 @@
         <v>29</v>
       </c>
       <c r="AP21" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AQ21" t="n">
         <v>17</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>4-3-2013-14</t>
+          <t>2014-04-03</t>
         </is>
       </c>
     </row>
@@ -4306,16 +4373,16 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E22" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F22" t="n">
         <v>19</v>
       </c>
       <c r="G22" t="n">
-        <v>0.743</v>
+        <v>0.74</v>
       </c>
       <c r="H22" t="n">
         <v>48.3</v>
@@ -4333,7 +4400,7 @@
         <v>8.1</v>
       </c>
       <c r="M22" t="n">
-        <v>22.1</v>
+        <v>22.2</v>
       </c>
       <c r="N22" t="n">
         <v>0.366</v>
@@ -4345,25 +4412,25 @@
         <v>24.8</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.805</v>
+        <v>0.804</v>
       </c>
       <c r="R22" t="n">
         <v>10.8</v>
       </c>
       <c r="S22" t="n">
-        <v>34.2</v>
+        <v>34.3</v>
       </c>
       <c r="T22" t="n">
-        <v>45</v>
+        <v>45.1</v>
       </c>
       <c r="U22" t="n">
         <v>21.9</v>
       </c>
       <c r="V22" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="W22" t="n">
-        <v>8.4</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="X22" t="n">
         <v>6.1</v>
@@ -4372,19 +4439,19 @@
         <v>3.6</v>
       </c>
       <c r="Z22" t="n">
-        <v>22.5</v>
+        <v>22.6</v>
       </c>
       <c r="AA22" t="n">
         <v>20.3</v>
       </c>
       <c r="AB22" t="n">
-        <v>106.1</v>
+        <v>106.2</v>
       </c>
       <c r="AC22" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="AD22" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="AE22" t="n">
         <v>2</v>
@@ -4408,13 +4475,13 @@
         <v>6</v>
       </c>
       <c r="AL22" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AM22" t="n">
         <v>14</v>
       </c>
       <c r="AN22" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AO22" t="n">
         <v>5</v>
@@ -4432,16 +4499,16 @@
         <v>2</v>
       </c>
       <c r="AT22" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AU22" t="n">
         <v>13</v>
       </c>
       <c r="AV22" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AW22" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AX22" t="n">
         <v>2</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>4-3-2013-14</t>
+          <t>2014-04-03</t>
         </is>
       </c>
     </row>
@@ -4566,7 +4633,7 @@
         <v>-5.3</v>
       </c>
       <c r="AD23" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AE23" t="n">
         <v>28</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>4-3-2013-14</t>
+          <t>2014-04-03</t>
         </is>
       </c>
     </row>
@@ -4748,7 +4815,7 @@
         <v>-11.2</v>
       </c>
       <c r="AD24" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AE24" t="n">
         <v>29</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>4-3-2013-14</t>
+          <t>2014-04-03</t>
         </is>
       </c>
     </row>
@@ -4930,16 +4997,16 @@
         <v>2.7</v>
       </c>
       <c r="AD25" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AE25" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AF25" t="n">
         <v>9</v>
       </c>
       <c r="AG25" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AH25" t="n">
         <v>24</v>
@@ -4987,7 +5054,7 @@
         <v>26</v>
       </c>
       <c r="AW25" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AX25" t="n">
         <v>17</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>4-3-2013-14</t>
+          <t>2014-04-03</t>
         </is>
       </c>
     </row>
@@ -5112,7 +5179,7 @@
         <v>4.2</v>
       </c>
       <c r="AD26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE26" t="n">
         <v>6</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>4-3-2013-14</t>
+          <t>2014-04-03</t>
         </is>
       </c>
     </row>
@@ -5294,7 +5361,7 @@
         <v>-2.3</v>
       </c>
       <c r="AD27" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AE27" t="n">
         <v>23</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>4-3-2013-14</t>
+          <t>2014-04-03</t>
         </is>
       </c>
     </row>
@@ -5398,16 +5465,16 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E28" t="n">
         <v>59</v>
       </c>
       <c r="F28" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G28" t="n">
-        <v>0.776</v>
+        <v>0.787</v>
       </c>
       <c r="H28" t="n">
         <v>48.2</v>
@@ -5416,10 +5483,10 @@
         <v>40.6</v>
       </c>
       <c r="J28" t="n">
-        <v>83.09999999999999</v>
+        <v>83</v>
       </c>
       <c r="K28" t="n">
-        <v>0.489</v>
+        <v>0.49</v>
       </c>
       <c r="L28" t="n">
         <v>8.4</v>
@@ -5428,13 +5495,13 @@
         <v>21.1</v>
       </c>
       <c r="N28" t="n">
-        <v>0.4</v>
+        <v>0.399</v>
       </c>
       <c r="O28" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="P28" t="n">
-        <v>20.2</v>
+        <v>20.3</v>
       </c>
       <c r="Q28" t="n">
         <v>0.785</v>
@@ -5449,13 +5516,13 @@
         <v>43.3</v>
       </c>
       <c r="U28" t="n">
-        <v>25.3</v>
+        <v>25.4</v>
       </c>
       <c r="V28" t="n">
         <v>14.6</v>
       </c>
       <c r="W28" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="X28" t="n">
         <v>5.2</v>
@@ -5470,13 +5537,13 @@
         <v>19.5</v>
       </c>
       <c r="AB28" t="n">
-        <v>105.5</v>
+        <v>105.6</v>
       </c>
       <c r="AC28" t="n">
-        <v>8.300000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AD28" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AE28" t="n">
         <v>1</v>
@@ -5488,7 +5555,7 @@
         <v>1</v>
       </c>
       <c r="AH28" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI28" t="n">
         <v>1</v>
@@ -5500,7 +5567,7 @@
         <v>2</v>
       </c>
       <c r="AL28" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AM28" t="n">
         <v>17</v>
@@ -5530,13 +5597,13 @@
         <v>1</v>
       </c>
       <c r="AV28" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AW28" t="n">
         <v>19</v>
       </c>
       <c r="AX28" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AY28" t="n">
         <v>16</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>4-3-2013-14</t>
+          <t>2014-04-03</t>
         </is>
       </c>
     </row>
@@ -5658,7 +5725,7 @@
         <v>3.1</v>
       </c>
       <c r="AD29" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AE29" t="n">
         <v>12</v>
@@ -5688,7 +5755,7 @@
         <v>11</v>
       </c>
       <c r="AN29" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AO29" t="n">
         <v>6</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>4-3-2013-14</t>
+          <t>2014-04-03</t>
         </is>
       </c>
     </row>
@@ -5840,7 +5907,7 @@
         <v>-7</v>
       </c>
       <c r="AD30" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AE30" t="n">
         <v>26</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>4-3-2013-14</t>
+          <t>2014-04-03</t>
         </is>
       </c>
     </row>
@@ -6022,7 +6089,7 @@
         <v>0.9</v>
       </c>
       <c r="AD31" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AE31" t="n">
         <v>15</v>
@@ -6046,7 +6113,7 @@
         <v>11</v>
       </c>
       <c r="AL31" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AM31" t="n">
         <v>18</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>4-3-2013-14</t>
+          <t>2014-04-03</t>
         </is>
       </c>
     </row>
